--- a/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/prepareStatement/mysql_ps_blob_cases_btree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/prepareStatement/mysql_ps_blob_cases_btree.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>TestID</t>
   </si>
@@ -128,14 +128,6 @@
     <t>blob_resource_02</t>
   </si>
   <si>
-    <t>ps_blob_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps_blob_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,6 +265,10 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/btreemysqlcases/prepareStatement/expectedresult/blob/</t>
+  </si>
+  <si>
+    <t>btree_ps_blob_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -648,7 +644,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -704,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>22</v>
@@ -730,13 +726,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -757,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
@@ -766,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>
@@ -775,7 +771,7 @@
         <v>20</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>16</v>
@@ -783,13 +779,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
@@ -807,31 +803,31 @@
         <v>27</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>16</v>
@@ -839,13 +835,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
@@ -857,19 +853,19 @@
         <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>15</v>
@@ -878,16 +874,16 @@
         <v>11</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>16</v>
@@ -895,13 +891,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -913,19 +909,19 @@
         <v>13</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>15</v>
@@ -934,16 +930,16 @@
         <v>11</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>16</v>
@@ -951,13 +947,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
@@ -969,19 +965,19 @@
         <v>13</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>15</v>
@@ -990,16 +986,16 @@
         <v>11</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>16</v>
@@ -1007,13 +1003,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
@@ -1025,19 +1021,19 @@
         <v>13</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>15</v>
@@ -1046,16 +1042,16 @@
         <v>11</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>16</v>
